--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3155.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3155.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.116910764100487</v>
+        <v>0.9479566812515259</v>
       </c>
       <c r="B1">
-        <v>1.971842211783823</v>
+        <v>1.480408549308777</v>
       </c>
       <c r="C1">
-        <v>2.517477614201428</v>
+        <v>3.545056104660034</v>
       </c>
       <c r="D1">
-        <v>2.898544317474308</v>
+        <v>3.074406862258911</v>
       </c>
       <c r="E1">
-        <v>3.617935847921857</v>
+        <v>1.5489661693573</v>
       </c>
     </row>
   </sheetData>
